--- a/data/trans_orig/Q23_tabaco_R2-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q23_tabaco_R2-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>146014</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>126407</v>
+        <v>128095</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>165043</v>
+        <v>166383</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.396671006688427</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3434068264456121</v>
+        <v>0.3479904648716813</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4483660079544298</v>
+        <v>0.4520064711871502</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>48</v>
@@ -765,19 +765,19 @@
         <v>47789</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>36053</v>
+        <v>36533</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>61117</v>
+        <v>59878</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2671314993333962</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2015316590946269</v>
+        <v>0.2042117405195446</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.341630892986064</v>
+        <v>0.3347091916242872</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>191</v>
@@ -786,19 +786,19 @@
         <v>193803</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>175846</v>
+        <v>170867</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>217760</v>
+        <v>215038</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3543046037002143</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3214766778260117</v>
+        <v>0.3123741812722838</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3981032394649526</v>
+        <v>0.3931262296564165</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>222084</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>203055</v>
+        <v>201715</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>241691</v>
+        <v>240003</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.603328993311573</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5516339920455702</v>
+        <v>0.5479935288128498</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.656593173554388</v>
+        <v>0.6520095351283186</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>131</v>
@@ -836,19 +836,19 @@
         <v>131108</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>117780</v>
+        <v>119019</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>142844</v>
+        <v>142364</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7328685006666038</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6583691070139358</v>
+        <v>0.6652908083757126</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7984683409053731</v>
+        <v>0.7957882594804553</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>350</v>
@@ -857,19 +857,19 @@
         <v>353192</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>329235</v>
+        <v>331957</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>371149</v>
+        <v>376128</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6456953962997857</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6018967605350474</v>
+        <v>0.6068737703435835</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.678523322173988</v>
+        <v>0.6876258187277161</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>171494</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>150556</v>
+        <v>150578</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>194961</v>
+        <v>194157</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3336695107223333</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2929313190981739</v>
+        <v>0.2929730375122116</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3793283940261686</v>
+        <v>0.3777641123308486</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>60</v>
@@ -982,19 +982,19 @@
         <v>61876</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>48547</v>
+        <v>47728</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>77019</v>
+        <v>76756</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2219246142252932</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1741187511265078</v>
+        <v>0.1711805942929659</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2762375285421497</v>
+        <v>0.2752956612407988</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>222</v>
@@ -1003,19 +1003,19 @@
         <v>233370</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>206117</v>
+        <v>207922</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>257622</v>
+        <v>259507</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2943696968917375</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2599930551417655</v>
+        <v>0.2622708617677762</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3249609629039916</v>
+        <v>0.3273395386230875</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>342470</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>319003</v>
+        <v>319807</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>363408</v>
+        <v>363386</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6663304892776668</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6206716059738313</v>
+        <v>0.6222358876691514</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7070686809018261</v>
+        <v>0.7070269624877884</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>203</v>
@@ -1053,19 +1053,19 @@
         <v>216938</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>201795</v>
+        <v>202058</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>230267</v>
+        <v>231086</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7780753857747068</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7237624714578502</v>
+        <v>0.7247043387592011</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8258812488734922</v>
+        <v>0.8288194057070342</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>522</v>
@@ -1074,19 +1074,19 @@
         <v>559407</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>535155</v>
+        <v>533270</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>586660</v>
+        <v>584855</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7056303031082626</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6750390370960084</v>
+        <v>0.6726604613769119</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.740006944858234</v>
+        <v>0.7377291382322236</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>126263</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>108451</v>
+        <v>108853</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>144640</v>
+        <v>144586</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3651035959196709</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3135985240346013</v>
+        <v>0.3147610132921146</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4182404700717223</v>
+        <v>0.4180859076002295</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>52</v>
@@ -1199,19 +1199,19 @@
         <v>50313</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>39056</v>
+        <v>38052</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>63760</v>
+        <v>61994</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.260531129979735</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2022412009801034</v>
+        <v>0.1970411874734483</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3301619940136107</v>
+        <v>0.321017574821634</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>170</v>
@@ -1220,19 +1220,19 @@
         <v>176576</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>154004</v>
+        <v>155210</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>198533</v>
+        <v>199130</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3276329799892024</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2857522483284768</v>
+        <v>0.2879884115717611</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3683733614749488</v>
+        <v>0.3694811009643093</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>219566</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>201189</v>
+        <v>201243</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>237378</v>
+        <v>236976</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6348964040803291</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5817595299282777</v>
+        <v>0.5819140923997705</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6864014759653987</v>
+        <v>0.6852389867078854</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>146</v>
@@ -1270,19 +1270,19 @@
         <v>142803</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>129356</v>
+        <v>131122</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>154060</v>
+        <v>155064</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7394688700202651</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6698380059863894</v>
+        <v>0.6789824251783663</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7977587990198969</v>
+        <v>0.8029588125265519</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>355</v>
@@ -1291,19 +1291,19 @@
         <v>362368</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>340411</v>
+        <v>339814</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>384940</v>
+        <v>383734</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6723670200107976</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6316266385250512</v>
+        <v>0.6305188990356907</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7142477516715231</v>
+        <v>0.7120115884282388</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>164489</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>144011</v>
+        <v>145264</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>184739</v>
+        <v>185714</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3378810614752206</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2958157432259414</v>
+        <v>0.2983897331303127</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3794769199702214</v>
+        <v>0.3814794143556265</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>101</v>
@@ -1416,19 +1416,19 @@
         <v>102041</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>86434</v>
+        <v>87266</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>118186</v>
+        <v>119882</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2949546642053306</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2498418251146644</v>
+        <v>0.2522468430359175</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.341622784610616</v>
+        <v>0.3465257498982078</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>278</v>
@@ -1437,19 +1437,19 @@
         <v>266530</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>242630</v>
+        <v>239651</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>294419</v>
+        <v>295144</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3200485253883102</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.291348927814444</v>
+        <v>0.2877726238857963</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.353537629492354</v>
+        <v>0.3544080970586487</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>322337</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>302087</v>
+        <v>301112</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>342815</v>
+        <v>341562</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6621189385247794</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6205230800297783</v>
+        <v>0.6185205856443745</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7041842567740585</v>
+        <v>0.7016102668696874</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>231</v>
@@ -1487,19 +1487,19 @@
         <v>243914</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>227769</v>
+        <v>226073</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>259521</v>
+        <v>258689</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7050453357946693</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6583772153893843</v>
+        <v>0.6534742501017922</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7501581748853356</v>
+        <v>0.7477531569640823</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>566</v>
@@ -1508,19 +1508,19 @@
         <v>566250</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>538361</v>
+        <v>537636</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>590150</v>
+        <v>593129</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6799514746116898</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6464623705076461</v>
+        <v>0.6455919029413515</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7086510721855561</v>
+        <v>0.7122273761142039</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>608261</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>568445</v>
+        <v>571303</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>647368</v>
+        <v>650273</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3547294652846681</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3315093644701953</v>
+        <v>0.3331761470086834</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3775364533622764</v>
+        <v>0.3792304801441185</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>261</v>
@@ -1633,19 +1633,19 @@
         <v>262018</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>235758</v>
+        <v>236129</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>291036</v>
+        <v>290343</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2628643810424137</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2365197931420601</v>
+        <v>0.2368917359900097</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2919754152445539</v>
+        <v>0.2912809067324123</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>861</v>
@@ -1654,19 +1654,19 @@
         <v>870279</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>821605</v>
+        <v>819530</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>920608</v>
+        <v>919690</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3209586946082496</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3030077557531237</v>
+        <v>0.3022428051126271</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3395202570995963</v>
+        <v>0.3391815946001931</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>1106456</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1067349</v>
+        <v>1064444</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1146272</v>
+        <v>1143414</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6452705347153319</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6224635466377236</v>
+        <v>0.6207695198558811</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6684906355298047</v>
+        <v>0.6668238529913163</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>711</v>
@@ -1704,19 +1704,19 @@
         <v>734763</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>705745</v>
+        <v>706438</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>761023</v>
+        <v>760652</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7371356189575863</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7080245847554462</v>
+        <v>0.7087190932675876</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7634802068579399</v>
+        <v>0.7631082640099904</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1793</v>
@@ -1725,19 +1725,19 @@
         <v>1841218</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1790889</v>
+        <v>1791807</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1889892</v>
+        <v>1891967</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6790413053917503</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6604797429004037</v>
+        <v>0.6608184053998069</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6969922442468763</v>
+        <v>0.6977571948873729</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>172961</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>152602</v>
+        <v>151477</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>194722</v>
+        <v>193400</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3934729190427235</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3471572319891733</v>
+        <v>0.3445977581167078</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4429766221161862</v>
+        <v>0.4399685048026447</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>43</v>
@@ -2090,19 +2090,19 @@
         <v>47584</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>35424</v>
+        <v>35419</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>60687</v>
+        <v>61315</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2153358685497996</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1603064950189448</v>
+        <v>0.1602843851429084</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2746301926371957</v>
+        <v>0.2774716195974257</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>206</v>
@@ -2111,19 +2111,19 @@
         <v>220545</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>197142</v>
+        <v>196229</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>248409</v>
+        <v>246617</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3338803435369766</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2984504767124274</v>
+        <v>0.2970683676156981</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3760628997263109</v>
+        <v>0.3733511363197711</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>266615</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>244854</v>
+        <v>246176</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>286974</v>
+        <v>288099</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6065270809572766</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5570233778838138</v>
+        <v>0.5600314951973554</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6528427680108267</v>
+        <v>0.6554022418832922</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>161</v>
@@ -2161,19 +2161,19 @@
         <v>173392</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>160289</v>
+        <v>159661</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>185552</v>
+        <v>185557</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7846641314502004</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7253698073628038</v>
+        <v>0.7225283804025741</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8396935049810548</v>
+        <v>0.8397156148570917</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>417</v>
@@ -2182,19 +2182,19 @@
         <v>440006</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>412142</v>
+        <v>413934</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>463409</v>
+        <v>464322</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6661196564630234</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6239371002736891</v>
+        <v>0.6266488636802288</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7015495232875726</v>
+        <v>0.7029316323843018</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>211321</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>186717</v>
+        <v>186371</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>236619</v>
+        <v>236576</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3408446062253439</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3011608161657532</v>
+        <v>0.3006028459675272</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3816480580409383</v>
+        <v>0.3815792362852747</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>99</v>
@@ -2307,19 +2307,19 @@
         <v>106654</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>89575</v>
+        <v>87550</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>126570</v>
+        <v>124054</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2819913387446706</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2368328159384022</v>
+        <v>0.2314797213238663</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3346467954572038</v>
+        <v>0.3279954463746911</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>295</v>
@@ -2328,19 +2328,19 @@
         <v>317975</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>287963</v>
+        <v>288748</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>347312</v>
+        <v>350005</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3185452790407375</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2884790444559671</v>
+        <v>0.2892655909757978</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3479347448769866</v>
+        <v>0.3506320713923575</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>408671</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>383373</v>
+        <v>383416</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>433275</v>
+        <v>433621</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.659155393774656</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6183519419590617</v>
+        <v>0.6184207637147251</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6988391838342467</v>
+        <v>0.6993971540324727</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>246</v>
@@ -2378,19 +2378,19 @@
         <v>271565</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>251649</v>
+        <v>254165</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>288644</v>
+        <v>290669</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7180086612553295</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6653532045427962</v>
+        <v>0.6720045536253091</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7631671840615978</v>
+        <v>0.7685202786761338</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>618</v>
@@ -2399,19 +2399,19 @@
         <v>680236</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>650899</v>
+        <v>648206</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>710248</v>
+        <v>709463</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6814547209592625</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6520652551230134</v>
+        <v>0.6493679286076425</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7115209555440329</v>
+        <v>0.710734409024202</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>161912</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>140654</v>
+        <v>142162</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>184139</v>
+        <v>184726</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3582688173225644</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3112306803340236</v>
+        <v>0.3145683969114337</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4074522627794634</v>
+        <v>0.4087518542831721</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>82</v>
@@ -2524,19 +2524,19 @@
         <v>91696</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>76190</v>
+        <v>75596</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>108120</v>
+        <v>110355</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2852766553633921</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.237035068155499</v>
+        <v>0.2351884208662236</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3363752310186601</v>
+        <v>0.3433272276157495</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>231</v>
@@ -2545,19 +2545,19 @@
         <v>253608</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>224806</v>
+        <v>227619</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>279603</v>
+        <v>282388</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3279312432153982</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2906886958752345</v>
+        <v>0.2943265224380856</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3615445404350288</v>
+        <v>0.365145896886814</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>290016</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>267789</v>
+        <v>267202</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>311274</v>
+        <v>309766</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6417311826774357</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5925477372205366</v>
+        <v>0.591248145716828</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6887693196659764</v>
+        <v>0.6854316030885663</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>206</v>
@@ -2595,19 +2595,19 @@
         <v>229732</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>213308</v>
+        <v>211073</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>245238</v>
+        <v>245832</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7147233446366079</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6636247689813398</v>
+        <v>0.6566727723842505</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7629649318445011</v>
+        <v>0.7648115791337765</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>463</v>
@@ -2616,19 +2616,19 @@
         <v>519748</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>493753</v>
+        <v>490968</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>548550</v>
+        <v>545737</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6720687567846018</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6384554595649712</v>
+        <v>0.6348541031131859</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7093113041247656</v>
+        <v>0.7056734775619143</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>183945</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>162749</v>
+        <v>160038</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>207803</v>
+        <v>205517</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3508244413367328</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3103977855009904</v>
+        <v>0.3052276103448652</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3963258189266452</v>
+        <v>0.3919660880878837</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>107</v>
@@ -2741,19 +2741,19 @@
         <v>117724</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>97047</v>
+        <v>98198</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>136862</v>
+        <v>137338</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2973558852060506</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2451272886126632</v>
+        <v>0.2480353229352866</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3456969935346174</v>
+        <v>0.3468984972549442</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>285</v>
@@ -2762,19 +2762,19 @@
         <v>301669</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>273050</v>
+        <v>273924</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>330014</v>
+        <v>329256</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3278209832335708</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2967203968397818</v>
+        <v>0.2976707435608213</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3586228738248303</v>
+        <v>0.357799557277425</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>340378</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>316520</v>
+        <v>318806</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>361574</v>
+        <v>364285</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6491755586632671</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6036741810733548</v>
+        <v>0.6080339119121162</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6896022144990096</v>
+        <v>0.6947723896551347</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>265</v>
@@ -2812,19 +2812,19 @@
         <v>278179</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>259041</v>
+        <v>258565</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>298856</v>
+        <v>297705</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7026441147939494</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6543030064653826</v>
+        <v>0.6531015027450555</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7548727113873369</v>
+        <v>0.7519646770647131</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>591</v>
@@ -2833,19 +2833,19 @@
         <v>618557</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>590212</v>
+        <v>590970</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>647176</v>
+        <v>646302</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6721790167664291</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6413771261751696</v>
+        <v>0.6422004427225749</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7032796031602182</v>
+        <v>0.7023292564391784</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>730139</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>688951</v>
+        <v>688131</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>780981</v>
+        <v>776871</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3586464278700456</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3384149496835183</v>
+        <v>0.3380118576919929</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3836200867741154</v>
+        <v>0.3816015734478762</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>331</v>
@@ -2958,19 +2958,19 @@
         <v>363659</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>331788</v>
+        <v>330483</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>397581</v>
+        <v>398087</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2762258851911721</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2520175881748818</v>
+        <v>0.2510263389004352</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3019926408243084</v>
+        <v>0.302376772754287</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1017</v>
@@ -2979,19 +2979,19 @@
         <v>1093797</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1042782</v>
+        <v>1036879</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1156548</v>
+        <v>1152042</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3262783850955205</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3110605712213123</v>
+        <v>0.3092996203072529</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3449969312969512</v>
+        <v>0.3436525543666667</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>1305679</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1254837</v>
+        <v>1258947</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1346867</v>
+        <v>1347687</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6413535721299544</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6163799132258848</v>
+        <v>0.6183984265521237</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6615850503164817</v>
+        <v>0.661988142308007</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>878</v>
@@ -3029,19 +3029,19 @@
         <v>952867</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>918945</v>
+        <v>918439</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>984738</v>
+        <v>986043</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7237741148088279</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.698007359175691</v>
+        <v>0.6976232272457131</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.747982411825118</v>
+        <v>0.7489736610995649</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2089</v>
@@ -3050,19 +3050,19 @@
         <v>2258547</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2195796</v>
+        <v>2200302</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>2309562</v>
+        <v>2315465</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6737216149044795</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6550030687030488</v>
+        <v>0.6563474456333334</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6889394287786875</v>
+        <v>0.6907003796927471</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>158501</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>140761</v>
+        <v>139318</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>178763</v>
+        <v>178074</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4203455722153774</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3732999878128699</v>
+        <v>0.3694741526919947</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4740810937140174</v>
+        <v>0.4722551021544802</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>58</v>
@@ -3415,19 +3415,19 @@
         <v>57760</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>44956</v>
+        <v>44733</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>71969</v>
+        <v>70115</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.257257833680414</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2002296679352391</v>
+        <v>0.1992360834759867</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3205425338202275</v>
+        <v>0.3122892219587828</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>207</v>
@@ -3436,19 +3436,19 @@
         <v>216260</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>194124</v>
+        <v>192066</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>239639</v>
+        <v>242627</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3594795261922425</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.322683878142714</v>
+        <v>0.3192621810167314</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3983422249082114</v>
+        <v>0.4033085704995507</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>218571</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>198309</v>
+        <v>198998</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>236311</v>
+        <v>237754</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5796544277846226</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5259189062859825</v>
+        <v>0.5277448978455198</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6267000121871301</v>
+        <v>0.6305258473080052</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>166</v>
@@ -3486,19 +3486,19 @@
         <v>166761</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>152552</v>
+        <v>154406</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>179565</v>
+        <v>179788</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.742742166319586</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6794574661797728</v>
+        <v>0.6877107780412172</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.799770332064761</v>
+        <v>0.8007639165240131</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>377</v>
@@ -3507,19 +3507,19 @@
         <v>385332</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>361953</v>
+        <v>358965</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>407468</v>
+        <v>409526</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6405204738077575</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6016577750917886</v>
+        <v>0.5966914295004493</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.677316121857286</v>
+        <v>0.6807378189832685</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>200002</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>176383</v>
+        <v>178088</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>223166</v>
+        <v>223704</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3832572919105068</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3379960644557746</v>
+        <v>0.3412647505520734</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4276449630396898</v>
+        <v>0.4286766180270912</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>103</v>
@@ -3632,19 +3632,19 @@
         <v>104067</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>88354</v>
+        <v>88146</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>121561</v>
+        <v>123147</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2904721128683496</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2466122684548721</v>
+        <v>0.2460331669372814</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3393011043177547</v>
+        <v>0.3437268450669803</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>287</v>
@@ -3653,19 +3653,19 @@
         <v>304069</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>274770</v>
+        <v>274343</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>333074</v>
+        <v>332515</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3454872644276177</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3121979179808504</v>
+        <v>0.3117120747185457</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3784427572439978</v>
+        <v>0.3778081167092875</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>321846</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>298682</v>
+        <v>298144</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>345465</v>
+        <v>343760</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6167427080894932</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5723550369603101</v>
+        <v>0.5713233819729088</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6620039355442253</v>
+        <v>0.6587352494479266</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>242</v>
@@ -3703,19 +3703,19 @@
         <v>254202</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>236708</v>
+        <v>235122</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>269915</v>
+        <v>270123</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7095278871316505</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6606988956822453</v>
+        <v>0.6562731549330196</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7533877315451279</v>
+        <v>0.7539668330627184</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>537</v>
@@ -3724,19 +3724,19 @@
         <v>576047</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>547042</v>
+        <v>547601</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>605346</v>
+        <v>605773</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6545127355723822</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.621557242756002</v>
+        <v>0.6221918832907124</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6878020820191495</v>
+        <v>0.6882879252814542</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>133934</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>114285</v>
+        <v>113799</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>154422</v>
+        <v>153928</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3127128154693497</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2668363135482779</v>
+        <v>0.2657009949045491</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3605490730260815</v>
+        <v>0.3593943548581744</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>66</v>
@@ -3849,19 +3849,19 @@
         <v>66501</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>54213</v>
+        <v>52789</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>82668</v>
+        <v>81543</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2264535881965597</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1846109508559072</v>
+        <v>0.1797618493574969</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.281507699342938</v>
+        <v>0.2776748517186091</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>189</v>
@@ -3870,19 +3870,19 @@
         <v>200435</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>175377</v>
+        <v>177857</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>223010</v>
+        <v>224593</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2776261968524859</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2429182074349102</v>
+        <v>0.246353110189691</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3088963310678107</v>
+        <v>0.3110889951249837</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>294363</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>273875</v>
+        <v>274369</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>314012</v>
+        <v>314498</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6872871845306503</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6394509269739185</v>
+        <v>0.6406056451418259</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7331636864517223</v>
+        <v>0.7342990050954511</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>218</v>
@@ -3920,19 +3920,19 @@
         <v>227162</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>210995</v>
+        <v>212120</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>239450</v>
+        <v>240874</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7735464118034403</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7184923006570613</v>
+        <v>0.722325148281391</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8153890491440918</v>
+        <v>0.8202381506425034</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>484</v>
@@ -3941,19 +3941,19 @@
         <v>521524</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>498949</v>
+        <v>497366</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>546582</v>
+        <v>544102</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7223738031475141</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6911036689321892</v>
+        <v>0.6889110048750162</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7570817925650897</v>
+        <v>0.7536468898103089</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>147705</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>130045</v>
+        <v>127967</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>167568</v>
+        <v>168750</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3344598592683479</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2944704102465867</v>
+        <v>0.2897662384832207</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3794359551862024</v>
+        <v>0.382113584235448</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>89</v>
@@ -4066,19 +4066,19 @@
         <v>94990</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>77784</v>
+        <v>79183</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>113105</v>
+        <v>113171</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2580909636940062</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2113423345700313</v>
+        <v>0.2151427036877836</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.307310372454227</v>
+        <v>0.3074908663632113</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>238</v>
@@ -4087,19 +4087,19 @@
         <v>242695</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>217684</v>
+        <v>219126</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>268094</v>
+        <v>270856</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2997452127537621</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2688551861246549</v>
+        <v>0.2706363838303198</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3311148158837892</v>
+        <v>0.3345254361201551</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>293918</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>274055</v>
+        <v>272873</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>311578</v>
+        <v>313656</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6655401407316521</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6205640448137979</v>
+        <v>0.6178864157645521</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7055295897534133</v>
+        <v>0.7102337615167794</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>254</v>
@@ -4137,19 +4137,19 @@
         <v>273058</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>254943</v>
+        <v>254877</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>290264</v>
+        <v>288865</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7419090363059938</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6926896275457731</v>
+        <v>0.6925091336367888</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7886576654299688</v>
+        <v>0.7848572963122168</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>545</v>
@@ -4158,19 +4158,19 @@
         <v>566976</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>541577</v>
+        <v>538815</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>591987</v>
+        <v>590545</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7002547872462378</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6688851841162107</v>
+        <v>0.6654745638798448</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7311448138753448</v>
+        <v>0.7293636161696802</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>640141</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>598469</v>
+        <v>595616</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>685387</v>
+        <v>677675</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3618991790297297</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3383398466271505</v>
+        <v>0.3367269282517348</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3874787181217099</v>
+        <v>0.3831185004547458</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>316</v>
@@ -4283,19 +4283,19 @@
         <v>323318</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>289582</v>
+        <v>291002</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>352772</v>
+        <v>352543</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.259797178305558</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2326891972265206</v>
+        <v>0.2338306594577582</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.28346476470259</v>
+        <v>0.2832809334534369</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>921</v>
@@ -4304,19 +4304,19 @@
         <v>963459</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>913039</v>
+        <v>908196</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1015051</v>
+        <v>1018153</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3197313552168493</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3029991456309706</v>
+        <v>0.301391858180751</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3368526354897558</v>
+        <v>0.337882030448799</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>1128698</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1083452</v>
+        <v>1091164</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1170370</v>
+        <v>1173223</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6381008209702703</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.61252128187829</v>
+        <v>0.6168814995452543</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6616601533728496</v>
+        <v>0.6632730717482653</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>880</v>
@@ -4354,19 +4354,19 @@
         <v>921182</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>891728</v>
+        <v>891957</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>954918</v>
+        <v>953498</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.740202821694442</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.71653523529741</v>
+        <v>0.716719066546563</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7673108027734794</v>
+        <v>0.7661693405422418</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1943</v>
@@ -4375,19 +4375,19 @@
         <v>2049880</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1998288</v>
+        <v>1995186</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>2100300</v>
+        <v>2105143</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6802686447831507</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6631473645102441</v>
+        <v>0.6621179695512009</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6970008543690294</v>
+        <v>0.698608141819249</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>116540</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>99900</v>
+        <v>100383</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>134803</v>
+        <v>133774</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.3730149062740917</v>
+        <v>0.3730149062740916</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3197521342433187</v>
+        <v>0.321298269767156</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4314693125372895</v>
+        <v>0.4281739379100563</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>40</v>
@@ -4740,19 +4740,19 @@
         <v>30324</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>21718</v>
+        <v>21689</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>40530</v>
+        <v>40464</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1686299939704061</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.120771676661186</v>
+        <v>0.1206130574951907</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.225390508378989</v>
+        <v>0.2250237865232113</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>176</v>
@@ -4761,19 +4761,19 @@
         <v>146864</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>125256</v>
+        <v>126550</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>167149</v>
+        <v>165891</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2983514176708069</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2544552709035136</v>
+        <v>0.2570852223712497</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3395612840962209</v>
+        <v>0.3370053733476209</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>195888</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>177625</v>
+        <v>178654</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>212528</v>
+        <v>212045</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6269850937259083</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5685306874627105</v>
+        <v>0.5718260620899436</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6802478657566812</v>
+        <v>0.6787017302328439</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>226</v>
@@ -4811,19 +4811,19 @@
         <v>149499</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>139293</v>
+        <v>139359</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>158105</v>
+        <v>158134</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.8313700060295938</v>
+        <v>0.8313700060295939</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7746094916210111</v>
+        <v>0.7749762134767886</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8792283233388137</v>
+        <v>0.8793869425048088</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>432</v>
@@ -4832,19 +4832,19 @@
         <v>345387</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>325102</v>
+        <v>326360</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>366995</v>
+        <v>365701</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.701648582329193</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6604387159037792</v>
+        <v>0.6629946266523791</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7455447290964867</v>
+        <v>0.7429147776287504</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>126822</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>107039</v>
+        <v>108718</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>147175</v>
+        <v>147747</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3007188267688384</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2538101917546979</v>
+        <v>0.2577914506937753</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3489785836687522</v>
+        <v>0.3503365158106964</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>84</v>
@@ -4957,19 +4957,19 @@
         <v>61208</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>48893</v>
+        <v>49356</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>74712</v>
+        <v>75848</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2170131102680822</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.173349020904193</v>
+        <v>0.1749897489476695</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2648900822058324</v>
+        <v>0.268918028373858</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>217</v>
@@ -4978,19 +4978,19 @@
         <v>188030</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>164582</v>
+        <v>163981</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>211599</v>
+        <v>213749</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.2671727235663389</v>
+        <v>0.2671727235663388</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2338552104694431</v>
+        <v>0.2330016491666956</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3006622352786921</v>
+        <v>0.3037167241920466</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>294908</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>274555</v>
+        <v>273983</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>314691</v>
+        <v>313012</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.6992811732311616</v>
+        <v>0.6992811732311617</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6510214163312477</v>
+        <v>0.6496634841893034</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7461898082453019</v>
+        <v>0.7422085493062246</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>302</v>
@@ -5028,19 +5028,19 @@
         <v>220840</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>207336</v>
+        <v>206200</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>233155</v>
+        <v>232692</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.7829868897319179</v>
+        <v>0.7829868897319178</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7351099177941675</v>
+        <v>0.731081971626142</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8266509790958071</v>
+        <v>0.8250102510523305</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>581</v>
@@ -5049,19 +5049,19 @@
         <v>515748</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>492179</v>
+        <v>490029</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>539196</v>
+        <v>539797</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.7328272764336612</v>
+        <v>0.732827276433661</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6993377647213085</v>
+        <v>0.6962832758079536</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7661447895305578</v>
+        <v>0.7669983508333048</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>117424</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>97103</v>
+        <v>97570</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>138200</v>
+        <v>138066</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3116856652341843</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2577456793995681</v>
+        <v>0.2589861951728309</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3668316157111779</v>
+        <v>0.366475319184865</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>81</v>
@@ -5174,19 +5174,19 @@
         <v>67199</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>55137</v>
+        <v>55222</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>82339</v>
+        <v>82375</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.2648698787631402</v>
+        <v>0.2648698787631401</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.217325392151635</v>
+        <v>0.2176621303574306</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3245437370563425</v>
+        <v>0.3246868941740976</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>183</v>
@@ -5195,19 +5195,19 @@
         <v>184624</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>161373</v>
+        <v>160091</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>209229</v>
+        <v>209021</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2928459316189596</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2559658863522984</v>
+        <v>0.253933534850903</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3318752860569794</v>
+        <v>0.3315441491261524</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>259316</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>238540</v>
+        <v>238674</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>279637</v>
+        <v>279170</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6883143347658155</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6331683842888221</v>
+        <v>0.633524680815135</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7422543206004317</v>
+        <v>0.7410138048271689</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>239</v>
@@ -5245,19 +5245,19 @@
         <v>186507</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>171367</v>
+        <v>171331</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>198569</v>
+        <v>198484</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.7351301212368598</v>
+        <v>0.7351301212368597</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6754562629436576</v>
+        <v>0.6753131058259022</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7826746078483648</v>
+        <v>0.7823378696425692</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>465</v>
@@ -5266,19 +5266,19 @@
         <v>445822</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>421217</v>
+        <v>421425</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>469073</v>
+        <v>470355</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7071540683810404</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6681247139430205</v>
+        <v>0.6684558508738474</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7440341136477014</v>
+        <v>0.746066465149097</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>158217</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>139629</v>
+        <v>139147</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>178463</v>
+        <v>177988</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3632537741817814</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3205762594849977</v>
+        <v>0.3194700048349453</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4097355735539481</v>
+        <v>0.4086456974212758</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>127</v>
@@ -5391,19 +5391,19 @@
         <v>89132</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>75419</v>
+        <v>74868</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>104070</v>
+        <v>103032</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2618928164045636</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2215998228533134</v>
+        <v>0.2199806438984172</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3057846855982419</v>
+        <v>0.3027363761671716</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>301</v>
@@ -5412,19 +5412,19 @@
         <v>247349</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>224766</v>
+        <v>222808</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>272883</v>
+        <v>271410</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3187928924842096</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2896869450417936</v>
+        <v>0.2871636985242016</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3517019083731631</v>
+        <v>0.3498033848487996</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>277339</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>257093</v>
+        <v>257568</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>295927</v>
+        <v>296409</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6367462258182185</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.590264426446052</v>
+        <v>0.5913543025787243</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6794237405150024</v>
+        <v>0.680529995165055</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>353</v>
@@ -5462,19 +5462,19 @@
         <v>251205</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>236267</v>
+        <v>237305</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>264918</v>
+        <v>265469</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7381071835954363</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6942153144017581</v>
+        <v>0.6972636238328282</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7784001771466866</v>
+        <v>0.7800193561015822</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>650</v>
@@ -5483,19 +5483,19 @@
         <v>528544</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>503010</v>
+        <v>504483</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>551127</v>
+        <v>553085</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.6812071075157904</v>
+        <v>0.6812071075157905</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.648298091626837</v>
+        <v>0.6501966151512002</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7103130549582064</v>
+        <v>0.7128363014757981</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>519004</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>482514</v>
+        <v>479179</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>557341</v>
+        <v>558199</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.3356092271662746</v>
+        <v>0.3356092271662747</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3120132240333217</v>
+        <v>0.3098566459576633</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3603994396211931</v>
+        <v>0.3609538465845013</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>332</v>
@@ -5608,19 +5608,19 @@
         <v>247863</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>224768</v>
+        <v>224249</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>273608</v>
+        <v>273555</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2347374130770603</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2128662304518341</v>
+        <v>0.2123740501941535</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2591200163771606</v>
+        <v>0.259068970742954</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>877</v>
@@ -5629,19 +5629,19 @@
         <v>766867</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>718917</v>
+        <v>721418</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>811423</v>
+        <v>811942</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2946803706118233</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2762550639039515</v>
+        <v>0.2772159533026136</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3118017834981893</v>
+        <v>0.3120012516190254</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>1027450</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>989113</v>
+        <v>988255</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1063940</v>
+        <v>1067275</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.6643907728337253</v>
+        <v>0.6643907728337254</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6396005603788067</v>
+        <v>0.6390461534154986</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6879867759666783</v>
+        <v>0.6901433540423367</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1120</v>
@@ -5679,19 +5679,19 @@
         <v>808051</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>782306</v>
+        <v>782359</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>831146</v>
+        <v>831665</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7652625869229397</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7408799836228397</v>
+        <v>0.7409310292570461</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7871337695481658</v>
+        <v>0.7876259498058464</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2128</v>
@@ -5700,19 +5700,19 @@
         <v>1835501</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1790945</v>
+        <v>1790426</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1883451</v>
+        <v>1880950</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.7053196293881768</v>
+        <v>0.7053196293881767</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6881982165018105</v>
+        <v>0.6879987483809746</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7237449360960484</v>
+        <v>0.7227840466973867</v>
       </c>
     </row>
     <row r="18">
